--- a/base_2sgc.xlsx
+++ b/base_2sgc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/87ae6954d5c5831d/Documentos/GitHub/analise_risco/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51D90580-270B-4AFF-A678-5E123ADBFD95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{51D90580-270B-4AFF-A678-5E123ADBFD95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2C15301D-4921-458D-BC69-AD621916D3B8}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{58199980-CFBE-4C1D-B220-9EDE8BCCF940}"/>
   </bookViews>
@@ -649,6 +649,13 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
